--- a/signup.xlsx
+++ b/signup.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Katalon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Katalon\Testing-Ecommerce-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2479B24D-5D82-466C-A12B-9761901C612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD4879-648F-4161-B939-78520CF5B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{D93390EB-1301-440E-9A0F-7F5E6E277C87}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{D93390EB-1301-440E-9A0F-7F5E6E277C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -91,6 +92,15 @@
   </si>
   <si>
     <t>Xuan Thuy - Ha Noi</t>
+  </si>
+  <si>
+    <t>thanhtung1</t>
+  </si>
+  <si>
+    <t>thanhtung2</t>
+  </si>
+  <si>
+    <t>ducthuan2</t>
   </si>
 </sst>
 </file>
@@ -456,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB2F283-8B75-4B9C-AC03-7AD76487B698}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -545,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -566,8 +576,123 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{EEC789F9-1C7D-4CB4-8BC4-D46C05E6807D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{B0866C36-DE45-4B42-8D49-A2C5881954A5}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4BB1B0A-9890-458A-B9FE-415581D6AC38}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{C4BB1B0A-9890-458A-B9FE-415581D6AC38}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{B0866C36-DE45-4B42-8D49-A2C5881954A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A89960-98F9-4954-9F79-D3ACEAEC02C4}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{396D850F-98A3-43AE-809D-48F8F66B26D7}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C6F90230-4644-4675-BF46-F725D9F35167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/signup.xlsx
+++ b/signup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Katalon\Testing-Ecommerce-Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD4879-648F-4161-B939-78520CF5B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAD2AFC-5326-4DF2-805A-EFBF95742227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{D93390EB-1301-440E-9A0F-7F5E6E277C87}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{D93390EB-1301-440E-9A0F-7F5E6E277C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
